--- a/xlsx/person.xlsx
+++ b/xlsx/person.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321460AE-2713-480E-B592-580974DEDA7E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="456" windowWidth="14796" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="450" windowWidth="14790" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
@@ -205,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,9 +239,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +291,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,16 +483,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -480,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -497,7 +532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -520,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -534,16 +569,16 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>10000</v>
+        <v>500000</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
     </row>
   </sheetData>
@@ -554,12 +589,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -567,12 +602,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
